--- a/Leave Calander SMB.xlsx
+++ b/Leave Calander SMB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neeraj-sharma\Documents\HTMLCheatSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shubhamm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E3731BD-9CD4-4257-B1A8-E805AA263BD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC291878-588C-446F-86AD-976AF4889A4C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{17C7C86A-92A5-4B88-83BB-FA225EF4BAAC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>Calendar</t>
   </si>
@@ -87,29 +87,35 @@
     <t>Ashish Goel</t>
   </si>
   <si>
-    <t>Vineeta</t>
-  </si>
-  <si>
     <t>Deepali</t>
   </si>
   <si>
-    <t>Subham</t>
-  </si>
-  <si>
     <t>Akshay</t>
   </si>
   <si>
     <t>Compay Holiday</t>
   </si>
   <si>
-    <t>On Leave</t>
+    <t>Vinita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Leave </t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Shubham</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +123,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +156,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -276,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -314,10 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -328,6 +344,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459243FF-74A2-4CA7-8BFB-8B02C531DC67}">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,9 +683,9 @@
     <col min="15" max="15" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" customWidth="1"/>
     <col min="26" max="26" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5.140625" bestFit="1" customWidth="1"/>
@@ -814,97 +833,97 @@
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>4</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>5</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>6</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>7</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>8</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <v>9</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <v>10</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="16">
         <v>11</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <v>12</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="16">
         <v>13</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="16">
         <v>14</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="16">
         <v>15</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="16">
         <v>16</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="16">
         <v>17</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="16">
         <v>18</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="16">
         <v>19</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="16">
         <v>20</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="16">
         <v>21</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="16">
         <v>22</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="16">
         <v>23</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="16">
         <v>24</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Z3" s="16">
         <v>25</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="16">
         <v>26</v>
       </c>
-      <c r="AB3" s="17">
+      <c r="AB3" s="16">
         <v>27</v>
       </c>
-      <c r="AC3" s="17">
+      <c r="AC3" s="16">
         <v>28</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AD3" s="16">
         <v>29</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AE3" s="16">
         <v>30</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AF3" s="17">
         <v>31</v>
       </c>
     </row>
@@ -941,7 +960,9 @@
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="V4" s="1" t="s">
         <v>13</v>
       </c>
@@ -988,8 +1009,8 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="2"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="20"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="2"/>
@@ -1024,8 +1045,8 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="2"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="20"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="2"/>
@@ -1060,7 +1081,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="12"/>
+      <c r="V7" s="18"/>
       <c r="W7" s="2"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
@@ -1096,7 +1117,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="12"/>
+      <c r="V8" s="18"/>
       <c r="W8" s="2"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
@@ -1110,7 +1131,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="12"/>
@@ -1131,9 +1152,9 @@
       <c r="R9" s="12"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="2"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="20"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="2"/>
@@ -1146,7 +1167,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="12"/>
@@ -1168,8 +1189,8 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="2"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="20"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="2"/>
@@ -1182,7 +1203,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="12"/>
@@ -1204,8 +1225,8 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="2"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="2"/>
@@ -1218,7 +1239,7 @@
     </row>
     <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -1239,9 +1260,9 @@
       <c r="R12" s="12"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="11"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="20"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="11"/>
@@ -1253,18 +1274,25 @@
       <c r="AF12" s="12"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="16"/>
+      <c r="B16" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>